--- a/src/validations/Datos_2023-08-11.xlsx
+++ b/src/validations/Datos_2023-08-11.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>37.794</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>

--- a/src/validations/Datos_2023-08-11.xlsx
+++ b/src/validations/Datos_2023-08-11.xlsx
@@ -599,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>37.794</v>
+        <v>37.883</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>8.06</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
